--- a/Cluster k=4.xlsx
+++ b/Cluster k=4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Zhengyong Ji\Documents\GitHub\bank_india\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236EEEBB-F2D3-49C0-AC1E-25EB2FCDD1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC07EB7B-2CAF-4B73-A4C3-208C1860E4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B33A98F3-BA29-4729-A7F1-0BC7C06C81B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{B33A98F3-BA29-4729-A7F1-0BC7C06C81B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -612,18 +612,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -633,13 +621,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="11" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -648,10 +630,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -663,8 +648,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,67 +683,1156 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Cluster size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9FE7-477B-9224-185C6ADB95C0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9FE7-477B-9224-185C6ADB95C0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-9FE7-477B-9224-185C6ADB95C0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="4472C4"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-ES"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-9FE7-477B-9224-185C6ADB95C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.1542288557213969E-2"/>
+                  <c:y val="-1.0088272383354351E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="4472C4"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-ES"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9FE7-477B-9224-185C6ADB95C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.1209559938053674E-18"/>
+                  <c:y val="4.0353089533417402E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="4472C4"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-ES"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9FE7-477B-9224-185C6ADB95C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.1641791044776124E-2"/>
+                  <c:y val="-1.0088272383354351E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="4472C4"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-ES"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-9FE7-477B-9224-185C6ADB95C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="4472C4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Cluster 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cluster 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cluster 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cluster 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2206</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9FE7-477B-9224-185C6ADB95C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87AD8909-B2F1-0F97-2902-6717F453CFD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A89BB425-6A73-00FE-3A51-13CFF09F3307}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6912429" y="794657"/>
-          <a:ext cx="5524500" cy="3958318"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1049,7 +2138,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1059,357 +2148,357 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="7">
         <v>2206</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="7">
         <v>997</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="7">
         <v>938</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="7">
         <v>858</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="22">
         <v>2.2E-16</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" ht="24">
-      <c r="A4" s="13"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7" ht="60">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="7">
         <v>2.2E-16</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="7">
         <v>2.2E-16</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="7">
         <v>0.4914</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="7">
         <v>0.44729999999999998</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="11">
         <v>0.57889999999999997</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="10">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="9">
         <v>2.6555818381502701E-85</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="7">
         <v>152103</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="7">
         <v>185769</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="11">
         <v>210535</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="10">
         <v>133146</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="9">
         <v>1.6369068510775499E-111</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="12">
         <v>568</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="12">
         <v>245</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="7">
         <v>313</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="7">
         <v>0</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="15">
         <v>2.2E-16</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="13"/>
-      <c r="B10" s="19">
+      <c r="A10" s="14"/>
+      <c r="B10" s="12">
         <v>1</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="12">
         <v>0</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="7">
         <v>0</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="11">
         <v>858</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="12" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="13"/>
-      <c r="B11" s="19">
+      <c r="A11" s="14"/>
+      <c r="B11" s="12">
         <v>107</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="12">
         <v>28</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="7">
         <v>232</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="7">
         <v>0</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="12" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="13"/>
-      <c r="B12" s="19">
+      <c r="A12" s="14"/>
+      <c r="B12" s="12">
         <v>1530</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="12">
         <v>724</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="7">
         <v>393</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="7">
         <v>0</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="12" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="24">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="9">
         <v>2.2E-16</v>
       </c>
-      <c r="G13" s="12"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" ht="48">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="9">
         <v>2.2E-16</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="24">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="7">
         <v>40.590000000000003</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="10">
         <v>38.81</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="7">
         <v>39.17</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="11">
         <v>59.25</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="13">
         <v>0</v>
       </c>
-      <c r="G15" s="12"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="7">
         <v>6.79</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="7">
         <v>5.5</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="7">
         <v>6.83</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="11">
         <v>10.89</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="9">
         <v>8.1461116554410702E-47</v>
       </c>
-      <c r="G16" s="12"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" ht="24">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="9">
         <v>2.2E-16</v>
       </c>
-      <c r="G17" s="12"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1">
       <c r="A19" s="2" t="s">
@@ -1491,16 +2580,16 @@
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="14.5" customHeight="1">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1515,11 +2604,11 @@
       <c r="E24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="9"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="5" t="s">
         <v>48</v>
       </c>
@@ -1532,8 +2621,8 @@
       <c r="E25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="9">
